--- a/analysis_output/key_correlations.xlsx
+++ b/analysis_output/key_correlations.xlsx
@@ -463,12 +463,12 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>0.051</t>
+          <t>0.067</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>0.6455</t>
+          <t>0.5350</t>
         </is>
       </c>
       <c r="D2" t="inlineStr"/>
@@ -481,12 +481,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>-0.034</t>
+          <t>-0.012</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>0.7602</t>
+          <t>0.9123</t>
         </is>
       </c>
       <c r="D3" t="inlineStr"/>
@@ -499,7 +499,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>0.618</t>
+          <t>0.622</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -521,7 +521,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>0.622</t>
+          <t>0.626</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -543,12 +543,12 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>0.250</t>
+          <t>0.257</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>0.0217</t>
+          <t>0.0151</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -565,7 +565,7 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>0.585</t>
+          <t>0.596</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -587,12 +587,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>-0.306</t>
+          <t>-0.276</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>0.0046</t>
+          <t>0.0088</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -609,17 +609,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>0.350</t>
+          <t>0.354</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>0.0011</t>
+          <t>0.0007</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>**</t>
+          <t>***</t>
         </is>
       </c>
     </row>
@@ -631,12 +631,12 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>0.004</t>
+          <t>0.016</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>0.9744</t>
+          <t>0.8809</t>
         </is>
       </c>
       <c r="D10" t="inlineStr"/>
